--- a/Study101.xlsx
+++ b/Study101.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Book/Topic</t>
   </si>
@@ -49,9 +49,6 @@
     <t>SQL and Relational Theory</t>
   </si>
   <si>
-    <t>TODO/ETC</t>
-  </si>
-  <si>
     <t>Logic/Proofs</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Hyper-V</t>
   </si>
   <si>
-    <t>Install latest .NET SDK</t>
-  </si>
-  <si>
     <t>Kimball Literature</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t xml:space="preserve">SAN + SQL Server IO Optimization </t>
   </si>
   <si>
-    <t>.NET 4.7.x New Features</t>
-  </si>
-  <si>
     <t>REST API</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
   </si>
   <si>
     <t>Implement a PGP like console app</t>
-  </si>
-  <si>
-    <t>Install Windows Server 2016 on Hyper-V</t>
   </si>
   <si>
     <t>MDX</t>
@@ -596,26 +584,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.5703125" customWidth="1"/>
-    <col min="6" max="6" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="90.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -626,281 +612,292 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
       </c>
       <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="3" t="s">
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Study101.xlsx
+++ b/Study101.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>Book/Topic</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>Safari</t>
-  </si>
-  <si>
     <t>SSAS Tabular Model</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>Hyper-V</t>
   </si>
   <si>
-    <t>Kimball Literature</t>
-  </si>
-  <si>
     <t>Azure Certification</t>
   </si>
   <si>
@@ -100,12 +91,6 @@
     <t>Implement as a CLR Function and Type</t>
   </si>
   <si>
-    <t>Plus MDX</t>
-  </si>
-  <si>
-    <t>Plus DAX</t>
-  </si>
-  <si>
     <t>Blockchain/PKI</t>
   </si>
   <si>
@@ -178,12 +163,6 @@
     <t>Any</t>
   </si>
   <si>
-    <t>Learn at least a half dozen programming languages. Include one language that emphasizes class abstractions (like Java or C++), one that emphasizes functional abstraction (like Lisp or ML or Haskell), one that supports syntactic abstraction (like Lisp), one that supports declarative specifications (like Prolog or C++ templates), and one that emphasizes parallelism (like Clojure or Go).</t>
-  </si>
-  <si>
-    <t>C. J. Date</t>
-  </si>
-  <si>
     <t>Learn PSSDiag</t>
   </si>
   <si>
@@ -209,6 +188,18 @@
   </si>
   <si>
     <t>WSDL, WCF</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Ruby on Rails</t>
   </si>
 </sst>
 </file>
@@ -584,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,292 +603,267 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>56</v>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Study101.xlsx
+++ b/Study101.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>Book/Topic</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>Ruby on Rails</t>
+  </si>
+  <si>
+    <t>http://tmenier.github.io/Flurl/fluent-url/</t>
+  </si>
+  <si>
+    <t>Function App</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Use Logic Apps / Function Apps to monitor tweets on a hashtag with negative sentiment.</t>
+  </si>
+  <si>
+    <t>https://www.getpostman.com/</t>
   </si>
 </sst>
 </file>
@@ -258,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -270,6 +285,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -575,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,11 +837,17 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
       <c r="H21" t="s">
         <v>17</v>
       </c>
@@ -858,14 +880,26 @@
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H27" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B20" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Study101.xlsx
+++ b/Study101.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Book/Topic</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>SSAS Tabular Model</t>
-  </si>
-  <si>
     <t>PowerBI</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>Dimensional Modeling</t>
   </si>
   <si>
-    <t>SSAS MD Model</t>
-  </si>
-  <si>
     <t>SQL and Relational Theory</t>
   </si>
   <si>
@@ -106,18 +100,6 @@
     <t>.NET</t>
   </si>
   <si>
-    <t>Implement a PGP like console app</t>
-  </si>
-  <si>
-    <t>MDX</t>
-  </si>
-  <si>
-    <t>Best Practices</t>
-  </si>
-  <si>
-    <t>Create a project for MDX best practices / How-To's</t>
-  </si>
-  <si>
     <t>JavaScript / Node</t>
   </si>
   <si>
@@ -130,12 +112,6 @@
     <t>Hadoop/Kafka/Spark</t>
   </si>
   <si>
-    <t>DAX</t>
-  </si>
-  <si>
-    <t>Create a project for DAX best practices / How-To's</t>
-  </si>
-  <si>
     <t>Language parsing/compilation (JavaCC, Lex/Yacc, JSON, etc.)</t>
   </si>
   <si>
@@ -190,9 +166,6 @@
     <t>WSDL, WCF</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
     <t>Go</t>
   </si>
   <si>
@@ -214,7 +187,22 @@
     <t>Use Logic Apps / Function Apps to monitor tweets on a hashtag with negative sentiment.</t>
   </si>
   <si>
-    <t>https://www.getpostman.com/</t>
+    <t>https://docker.io</t>
+  </si>
+  <si>
+    <t>https://kubernetes.io</t>
+  </si>
+  <si>
+    <t>https://dcos.io</t>
+  </si>
+  <si>
+    <t>Implement a PGP like console app for email/chat</t>
+  </si>
+  <si>
+    <t>Java + Certification</t>
+  </si>
+  <si>
+    <t>MySQL/Oracle</t>
   </si>
 </sst>
 </file>
@@ -591,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H28"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,194 +607,182 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -814,7 +790,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -822,75 +798,66 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>14</v>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>65</v>
+      <c r="H25" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -898,8 +865,10 @@
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
     <hyperlink ref="B20" r:id="rId3"/>
+    <hyperlink ref="B22" r:id="rId4"/>
+    <hyperlink ref="B23" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>